--- a/experiment_results/SBFL_ONLY/Elevator/3Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/Elevator/3Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -39486,10 +39486,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>407</v>
       </c>
       <c r="D2">
-        <v>54.6875</v>
+        <v>90.84821428571429</v>
       </c>
       <c r="E2">
         <v>448</v>
@@ -39500,10 +39500,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E3">
         <v>448</v>
@@ -39514,10 +39514,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="D4">
-        <v>73.21428571428571</v>
+        <v>58.25892857142857</v>
       </c>
       <c r="E4">
         <v>448</v>
@@ -39531,10 +39531,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>186</v>
+        <v>409</v>
       </c>
       <c r="D5">
-        <v>41.51785714285715</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E5">
         <v>448</v>
@@ -39545,10 +39545,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E6">
         <v>448</v>
@@ -39559,10 +39559,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="D7">
-        <v>49.77678571428572</v>
+        <v>73.21428571428571</v>
       </c>
       <c r="E7">
         <v>448</v>
@@ -39590,10 +39590,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>12.5</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E9">
         <v>448</v>
@@ -39604,10 +39604,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="D10">
-        <v>70.3125</v>
+        <v>57.8125</v>
       </c>
       <c r="E10">
         <v>448</v>
@@ -39621,10 +39621,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="D11">
-        <v>60.9375</v>
+        <v>78.34821428571429</v>
       </c>
       <c r="E11">
         <v>448</v>
@@ -39635,10 +39635,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E12">
         <v>448</v>
@@ -39649,10 +39649,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>328</v>
+        <v>261</v>
       </c>
       <c r="D13">
-        <v>73.21428571428571</v>
+        <v>58.25892857142857</v>
       </c>
       <c r="E13">
         <v>448</v>
@@ -39666,10 +39666,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="D14">
-        <v>4.464285714285714</v>
+        <v>87.72321428571429</v>
       </c>
       <c r="E14">
         <v>448</v>
@@ -39680,10 +39680,10 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="D15">
-        <v>17.41071428571428</v>
+        <v>45.08928571428572</v>
       </c>
       <c r="E15">
         <v>448</v>
@@ -39694,10 +39694,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>41.51785714285715</v>
+        <v>18.30357142857143</v>
       </c>
       <c r="E16">
         <v>448</v>
@@ -39711,10 +39711,10 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>74</v>
+        <v>409</v>
       </c>
       <c r="D17">
-        <v>16.51785714285714</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E17">
         <v>448</v>
@@ -39725,10 +39725,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E18">
         <v>448</v>
@@ -39739,10 +39739,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D19">
-        <v>35.04464285714285</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E19">
         <v>448</v>
@@ -39756,10 +39756,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="D20">
-        <v>8.705357142857142</v>
+        <v>93.75</v>
       </c>
       <c r="E20">
         <v>448</v>
@@ -39770,10 +39770,10 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D21">
-        <v>49.33035714285715</v>
+        <v>35.26785714285715</v>
       </c>
       <c r="E21">
         <v>448</v>
@@ -39784,10 +39784,10 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>322</v>
       </c>
       <c r="D22">
-        <v>4.464285714285714</v>
+        <v>71.875</v>
       </c>
       <c r="E22">
         <v>448</v>
@@ -39801,10 +39801,10 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="D23">
-        <v>18.52678571428572</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E23">
         <v>448</v>
@@ -39815,10 +39815,10 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="D24">
-        <v>8.705357142857142</v>
+        <v>93.75</v>
       </c>
       <c r="E24">
         <v>448</v>
@@ -39829,10 +39829,10 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="D25">
-        <v>5.357142857142857</v>
+        <v>70.98214285714286</v>
       </c>
       <c r="E25">
         <v>448</v>
@@ -39846,10 +39846,10 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="D26">
-        <v>27.67857142857143</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E26">
         <v>448</v>
@@ -39860,10 +39860,10 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="D27">
-        <v>7.366071428571429</v>
+        <v>40.17857142857143</v>
       </c>
       <c r="E27">
         <v>448</v>
@@ -39874,10 +39874,10 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>40.40178571428572</v>
+        <v>15.84821428571428</v>
       </c>
       <c r="E28">
         <v>448</v>
@@ -39891,10 +39891,10 @@
         <v>25</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.4464285714285714</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E29">
         <v>448</v>
@@ -39905,10 +39905,10 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>3.348214285714286</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E30">
         <v>448</v>
@@ -39919,10 +39919,10 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="D31">
-        <v>23.4375</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E31">
         <v>448</v>
@@ -39936,10 +39936,10 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>348</v>
       </c>
       <c r="D32">
-        <v>20.08928571428572</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E32">
         <v>448</v>
@@ -39950,10 +39950,10 @@
         <v>25</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E33">
         <v>448</v>
@@ -39964,10 +39964,10 @@
         <v>8</v>
       </c>
       <c r="C34">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D34">
-        <v>35.04464285714285</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E34">
         <v>448</v>
@@ -39981,10 +39981,10 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E35">
         <v>448</v>
@@ -39995,10 +39995,10 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>13.39285714285714</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E36">
         <v>448</v>
@@ -40009,10 +40009,10 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="D37">
-        <v>49.10714285714285</v>
+        <v>72.76785714285714</v>
       </c>
       <c r="E37">
         <v>448</v>
@@ -40026,10 +40026,10 @@
         <v>15</v>
       </c>
       <c r="C38">
-        <v>129</v>
+        <v>349</v>
       </c>
       <c r="D38">
-        <v>28.79464285714285</v>
+        <v>77.90178571428571</v>
       </c>
       <c r="E38">
         <v>448</v>
@@ -40040,10 +40040,10 @@
         <v>25</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E39">
         <v>448</v>
@@ -40054,10 +40054,10 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="D40">
-        <v>18.52678571428572</v>
+        <v>72.09821428571429</v>
       </c>
       <c r="E40">
         <v>448</v>
@@ -40071,10 +40071,10 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>395</v>
       </c>
       <c r="D41">
-        <v>3.125</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E41">
         <v>448</v>
@@ -40085,10 +40085,10 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="D42">
-        <v>23.88392857142857</v>
+        <v>33.70535714285715</v>
       </c>
       <c r="E42">
         <v>448</v>
@@ -40099,10 +40099,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="D43">
-        <v>24.33035714285714</v>
+        <v>49.77678571428572</v>
       </c>
       <c r="E43">
         <v>448</v>
@@ -40116,10 +40116,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>116</v>
+        <v>401</v>
       </c>
       <c r="D44">
-        <v>25.89285714285715</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E44">
         <v>448</v>
@@ -40130,10 +40130,10 @@
         <v>17</v>
       </c>
       <c r="C45">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>22.99107142857143</v>
+        <v>13.16964285714286</v>
       </c>
       <c r="E45">
         <v>448</v>
@@ -40144,10 +40144,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D46">
-        <v>26.11607142857143</v>
+        <v>66.96428571428571</v>
       </c>
       <c r="E46">
         <v>448</v>
@@ -40161,10 +40161,10 @@
         <v>15</v>
       </c>
       <c r="C47">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="D47">
-        <v>16.07142857142857</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E47">
         <v>448</v>
@@ -40175,10 +40175,10 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>35.04464285714285</v>
       </c>
       <c r="E48">
         <v>448</v>
@@ -40189,10 +40189,10 @@
         <v>11</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="D49">
-        <v>5.357142857142857</v>
+        <v>69.64285714285714</v>
       </c>
       <c r="E49">
         <v>448</v>
@@ -40206,10 +40206,10 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D50">
-        <v>6.25</v>
+        <v>89.0625</v>
       </c>
       <c r="E50">
         <v>448</v>
@@ -40220,10 +40220,10 @@
         <v>21</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D51">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E51">
         <v>448</v>
@@ -40234,10 +40234,10 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D52">
-        <v>50.66964285714286</v>
+        <v>52.00892857142857</v>
       </c>
       <c r="E52">
         <v>448</v>
@@ -40251,10 +40251,10 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="D53">
-        <v>4.6875</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E53">
         <v>448</v>
@@ -40265,10 +40265,10 @@
         <v>21</v>
       </c>
       <c r="C54">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="D54">
-        <v>7.589285714285714</v>
+        <v>93.75</v>
       </c>
       <c r="E54">
         <v>448</v>
@@ -40279,10 +40279,10 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D55">
-        <v>27.90178571428572</v>
+        <v>50.22321428571429</v>
       </c>
       <c r="E55">
         <v>448</v>
@@ -40296,10 +40296,10 @@
         <v>17</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>210</v>
       </c>
       <c r="D56">
-        <v>1.116071428571429</v>
+        <v>46.875</v>
       </c>
       <c r="E56">
         <v>448</v>
@@ -40310,10 +40310,10 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>40.17857142857143</v>
+        <v>17.1875</v>
       </c>
       <c r="E57">
         <v>448</v>
@@ -40324,10 +40324,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="D58">
-        <v>28.125</v>
+        <v>50.22321428571429</v>
       </c>
       <c r="E58">
         <v>448</v>
@@ -40341,10 +40341,10 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E59">
         <v>448</v>
@@ -40355,10 +40355,10 @@
         <v>13</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>4.241071428571429</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E60">
         <v>448</v>
@@ -40369,10 +40369,10 @@
         <v>11</v>
       </c>
       <c r="C61">
-        <v>69</v>
+        <v>327</v>
       </c>
       <c r="D61">
-        <v>15.40178571428572</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E61">
         <v>448</v>
@@ -40386,10 +40386,10 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="D62">
-        <v>0.4464285714285714</v>
+        <v>88.61607142857143</v>
       </c>
       <c r="E62">
         <v>448</v>
@@ -40400,10 +40400,10 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>35.04464285714285</v>
       </c>
       <c r="E63">
         <v>448</v>
@@ -40414,10 +40414,10 @@
         <v>11</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="D64">
-        <v>5.357142857142857</v>
+        <v>71.20535714285714</v>
       </c>
       <c r="E64">
         <v>448</v>
@@ -40431,10 +40431,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>211</v>
+        <v>405</v>
       </c>
       <c r="D65">
-        <v>47.09821428571428</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E65">
         <v>448</v>
@@ -40445,10 +40445,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E66">
         <v>448</v>
@@ -40459,10 +40459,10 @@
         <v>13</v>
       </c>
       <c r="C67">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>12.5</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E67">
         <v>448</v>
@@ -40476,10 +40476,10 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>22</v>
+        <v>401</v>
       </c>
       <c r="D68">
-        <v>4.910714285714286</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E68">
         <v>448</v>
@@ -40490,10 +40490,10 @@
         <v>13</v>
       </c>
       <c r="C69">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D69">
-        <v>40.84821428571428</v>
+        <v>37.72321428571428</v>
       </c>
       <c r="E69">
         <v>448</v>
@@ -40504,10 +40504,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="D70">
-        <v>7.142857142857142</v>
+        <v>71.20535714285714</v>
       </c>
       <c r="E70">
         <v>448</v>
@@ -40521,10 +40521,10 @@
         <v>25</v>
       </c>
       <c r="C71">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E71">
         <v>448</v>
@@ -40535,10 +40535,10 @@
         <v>13</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>3.794642857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E72">
         <v>448</v>
@@ -40549,10 +40549,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>68</v>
+        <v>327</v>
       </c>
       <c r="D73">
-        <v>15.17857142857143</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E73">
         <v>448</v>
@@ -40566,10 +40566,10 @@
         <v>10</v>
       </c>
       <c r="C74">
-        <v>53</v>
+        <v>411</v>
       </c>
       <c r="D74">
-        <v>11.83035714285714</v>
+        <v>91.74107142857143</v>
       </c>
       <c r="E74">
         <v>448</v>
@@ -40580,10 +40580,10 @@
         <v>19</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D75">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E75">
         <v>448</v>
@@ -40594,10 +40594,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>92</v>
+        <v>326</v>
       </c>
       <c r="D76">
-        <v>20.53571428571428</v>
+        <v>72.76785714285714</v>
       </c>
       <c r="E76">
         <v>448</v>
@@ -40611,10 +40611,10 @@
         <v>15</v>
       </c>
       <c r="C77">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="D77">
-        <v>29.01785714285715</v>
+        <v>77.90178571428571</v>
       </c>
       <c r="E77">
         <v>448</v>
@@ -40625,10 +40625,10 @@
         <v>19</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D78">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E78">
         <v>448</v>
@@ -40639,10 +40639,10 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="D79">
-        <v>18.75</v>
+        <v>72.09821428571429</v>
       </c>
       <c r="E79">
         <v>448</v>
@@ -40656,10 +40656,10 @@
         <v>6</v>
       </c>
       <c r="C80">
-        <v>209</v>
+        <v>405</v>
       </c>
       <c r="D80">
-        <v>46.65178571428572</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E80">
         <v>448</v>
@@ -40670,10 +40670,10 @@
         <v>7</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E81">
         <v>448</v>
@@ -40684,10 +40684,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>233</v>
+        <v>326</v>
       </c>
       <c r="D82">
-        <v>52.00892857142857</v>
+        <v>72.76785714285714</v>
       </c>
       <c r="E82">
         <v>448</v>
@@ -40701,10 +40701,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>68</v>
+        <v>405</v>
       </c>
       <c r="D83">
-        <v>15.17857142857143</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E83">
         <v>448</v>
@@ -40715,10 +40715,10 @@
         <v>25</v>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E84">
         <v>448</v>
@@ -40729,10 +40729,10 @@
         <v>8</v>
       </c>
       <c r="C85">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="D85">
-        <v>35.04464285714285</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="E85">
         <v>448</v>
@@ -40746,10 +40746,10 @@
         <v>15</v>
       </c>
       <c r="C86">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="D86">
-        <v>29.91071428571428</v>
+        <v>79.01785714285714</v>
       </c>
       <c r="E86">
         <v>448</v>
@@ -40760,10 +40760,10 @@
         <v>17</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D87">
-        <v>7.366071428571429</v>
+        <v>43.75</v>
       </c>
       <c r="E87">
         <v>448</v>
@@ -40774,10 +40774,10 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="D88">
-        <v>40.40178571428572</v>
+        <v>16.07142857142857</v>
       </c>
       <c r="E88">
         <v>448</v>
@@ -40791,10 +40791,10 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="D89">
-        <v>11.38392857142857</v>
+        <v>91.74107142857143</v>
       </c>
       <c r="E89">
         <v>448</v>
@@ -40805,10 +40805,10 @@
         <v>25</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E90">
         <v>448</v>
@@ -40819,10 +40819,10 @@
         <v>11</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="D91">
-        <v>20.3125</v>
+        <v>72.76785714285714</v>
       </c>
       <c r="E91">
         <v>448</v>
@@ -40836,10 +40836,10 @@
         <v>15</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>348</v>
       </c>
       <c r="D92">
-        <v>20.3125</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E92">
         <v>448</v>
@@ -40850,10 +40850,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E93">
         <v>448</v>
@@ -40864,10 +40864,10 @@
         <v>8</v>
       </c>
       <c r="C94">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D94">
-        <v>35.04464285714285</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E94">
         <v>448</v>
@@ -40881,10 +40881,10 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="D95">
-        <v>4.6875</v>
+        <v>88.61607142857143</v>
       </c>
       <c r="E95">
         <v>448</v>
@@ -40895,10 +40895,10 @@
         <v>21</v>
       </c>
       <c r="C96">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="D96">
-        <v>8.705357142857142</v>
+        <v>93.75</v>
       </c>
       <c r="E96">
         <v>448</v>
@@ -40909,10 +40909,10 @@
         <v>11</v>
       </c>
       <c r="C97">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="D97">
-        <v>5.357142857142857</v>
+        <v>71.65178571428571</v>
       </c>
       <c r="E97">
         <v>448</v>
@@ -40926,10 +40926,10 @@
         <v>10</v>
       </c>
       <c r="C98">
-        <v>21</v>
+        <v>397</v>
       </c>
       <c r="D98">
-        <v>4.6875</v>
+        <v>88.61607142857143</v>
       </c>
       <c r="E98">
         <v>448</v>
@@ -40940,10 +40940,10 @@
         <v>17</v>
       </c>
       <c r="C99">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D99">
-        <v>22.09821428571428</v>
+        <v>24.77678571428572</v>
       </c>
       <c r="E99">
         <v>448</v>
@@ -40954,10 +40954,10 @@
         <v>11</v>
       </c>
       <c r="C100">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="D100">
-        <v>22.99107142857143</v>
+        <v>64.50892857142857</v>
       </c>
       <c r="E100">
         <v>448</v>
@@ -40971,10 +40971,10 @@
         <v>10</v>
       </c>
       <c r="C101">
-        <v>23</v>
+        <v>401</v>
       </c>
       <c r="D101">
-        <v>5.133928571428571</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E101">
         <v>448</v>
@@ -40985,10 +40985,10 @@
         <v>21</v>
       </c>
       <c r="C102">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="D102">
-        <v>9.151785714285714</v>
+        <v>93.75</v>
       </c>
       <c r="E102">
         <v>448</v>
@@ -40999,10 +40999,10 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="D103">
-        <v>7.142857142857142</v>
+        <v>71.20535714285714</v>
       </c>
       <c r="E103">
         <v>448</v>
@@ -41016,10 +41016,10 @@
         <v>15</v>
       </c>
       <c r="C104">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="D104">
-        <v>17.63392857142857</v>
+        <v>77.23214285714286</v>
       </c>
       <c r="E104">
         <v>448</v>
@@ -41030,10 +41030,10 @@
         <v>25</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E105">
         <v>448</v>
@@ -41044,10 +41044,10 @@
         <v>13</v>
       </c>
       <c r="C106">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>3.348214285714286</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E106">
         <v>448</v>
@@ -41061,10 +41061,10 @@
         <v>21</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="D107">
-        <v>1.116071428571429</v>
+        <v>93.75</v>
       </c>
       <c r="E107">
         <v>448</v>
@@ -41075,10 +41075,10 @@
         <v>13</v>
       </c>
       <c r="C108">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="D108">
-        <v>5.580357142857143</v>
+        <v>33.48214285714285</v>
       </c>
       <c r="E108">
         <v>448</v>
@@ -41089,10 +41089,10 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D109">
-        <v>47.76785714285715</v>
+        <v>51.5625</v>
       </c>
       <c r="E109">
         <v>448</v>
@@ -41106,10 +41106,10 @@
         <v>15</v>
       </c>
       <c r="C110">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="D110">
-        <v>4.464285714285714</v>
+        <v>77.45535714285714</v>
       </c>
       <c r="E110">
         <v>448</v>
@@ -41120,10 +41120,10 @@
         <v>13</v>
       </c>
       <c r="C111">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D111">
-        <v>9.821428571428571</v>
+        <v>33.25892857142857</v>
       </c>
       <c r="E111">
         <v>448</v>
@@ -41134,10 +41134,10 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="D112">
-        <v>27.23214285714285</v>
+        <v>51.11607142857143</v>
       </c>
       <c r="E112">
         <v>448</v>
@@ -41151,10 +41151,10 @@
         <v>19</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>0.8928571428571428</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E113">
         <v>448</v>
@@ -41165,10 +41165,10 @@
         <v>13</v>
       </c>
       <c r="C114">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D114">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E114">
         <v>448</v>
@@ -41179,10 +41179,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="D115">
-        <v>23.4375</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E115">
         <v>448</v>
@@ -41196,10 +41196,10 @@
         <v>10</v>
       </c>
       <c r="C116">
-        <v>69</v>
+        <v>405</v>
       </c>
       <c r="D116">
-        <v>15.40178571428572</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E116">
         <v>448</v>
@@ -41210,10 +41210,10 @@
         <v>19</v>
       </c>
       <c r="C117">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D117">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E117">
         <v>448</v>
@@ -41224,10 +41224,10 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="D118">
-        <v>35.26785714285715</v>
+        <v>53.34821428571429</v>
       </c>
       <c r="E118">
         <v>448</v>
@@ -41241,10 +41241,10 @@
         <v>10</v>
       </c>
       <c r="C119">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="D119">
-        <v>51.5625</v>
+        <v>90.40178571428571</v>
       </c>
       <c r="E119">
         <v>448</v>
@@ -41255,10 +41255,10 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E120">
         <v>448</v>
@@ -41269,10 +41269,10 @@
         <v>8</v>
       </c>
       <c r="C121">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="D121">
-        <v>68.30357142857143</v>
+        <v>54.46428571428571</v>
       </c>
       <c r="E121">
         <v>448</v>
@@ -41286,10 +41286,10 @@
         <v>15</v>
       </c>
       <c r="C122">
-        <v>30</v>
+        <v>348</v>
       </c>
       <c r="D122">
-        <v>6.696428571428571</v>
+        <v>77.67857142857143</v>
       </c>
       <c r="E122">
         <v>448</v>
@@ -41300,10 +41300,10 @@
         <v>21</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D123">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E123">
         <v>448</v>
@@ -41314,10 +41314,10 @@
         <v>8</v>
       </c>
       <c r="C124">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D124">
-        <v>50.66964285714286</v>
+        <v>52.00892857142857</v>
       </c>
       <c r="E124">
         <v>448</v>
@@ -41331,10 +41331,10 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>399</v>
       </c>
       <c r="D125">
-        <v>0.4464285714285714</v>
+        <v>89.0625</v>
       </c>
       <c r="E125">
         <v>448</v>
@@ -41345,10 +41345,10 @@
         <v>13</v>
       </c>
       <c r="C126">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="D126">
-        <v>9.821428571428571</v>
+        <v>33.25892857142857</v>
       </c>
       <c r="E126">
         <v>448</v>
@@ -41359,10 +41359,10 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="D127">
-        <v>27.23214285714285</v>
+        <v>51.11607142857143</v>
       </c>
       <c r="E127">
         <v>448</v>
@@ -41376,10 +41376,10 @@
         <v>10</v>
       </c>
       <c r="C128">
-        <v>62</v>
+        <v>403</v>
       </c>
       <c r="D128">
-        <v>13.83928571428572</v>
+        <v>89.95535714285714</v>
       </c>
       <c r="E128">
         <v>448</v>
@@ -41390,10 +41390,10 @@
         <v>19</v>
       </c>
       <c r="C129">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D129">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E129">
         <v>448</v>
@@ -41404,10 +41404,10 @@
         <v>13</v>
       </c>
       <c r="C130">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D130">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E130">
         <v>448</v>
@@ -41421,10 +41421,10 @@
         <v>15</v>
       </c>
       <c r="C131">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="D131">
-        <v>17.85714285714286</v>
+        <v>77.23214285714286</v>
       </c>
       <c r="E131">
         <v>448</v>
@@ -41435,10 +41435,10 @@
         <v>19</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E132">
         <v>448</v>
@@ -41449,10 +41449,10 @@
         <v>13</v>
       </c>
       <c r="C133">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E133">
         <v>448</v>
@@ -41466,10 +41466,10 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>73</v>
+        <v>409</v>
       </c>
       <c r="D134">
-        <v>16.29464285714286</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E134">
         <v>448</v>
@@ -41480,10 +41480,10 @@
         <v>25</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E135">
         <v>448</v>
@@ -41494,10 +41494,10 @@
         <v>8</v>
       </c>
       <c r="C136">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D136">
-        <v>35.04464285714285</v>
+        <v>55.58035714285714</v>
       </c>
       <c r="E136">
         <v>448</v>
@@ -41511,10 +41511,10 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D137">
-        <v>6.25</v>
+        <v>89.0625</v>
       </c>
       <c r="E137">
         <v>448</v>
@@ -41525,10 +41525,10 @@
         <v>21</v>
       </c>
       <c r="C138">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D138">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E138">
         <v>448</v>
@@ -41539,10 +41539,10 @@
         <v>13</v>
       </c>
       <c r="C139">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D139">
-        <v>14.73214285714286</v>
+        <v>31.91964285714285</v>
       </c>
       <c r="E139">
         <v>448</v>
@@ -41556,10 +41556,10 @@
         <v>15</v>
       </c>
       <c r="C140">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="D140">
-        <v>6.696428571428571</v>
+        <v>77.45535714285714</v>
       </c>
       <c r="E140">
         <v>448</v>
@@ -41570,10 +41570,10 @@
         <v>21</v>
       </c>
       <c r="C141">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="D141">
-        <v>2.232142857142857</v>
+        <v>93.75</v>
       </c>
       <c r="E141">
         <v>448</v>
@@ -41584,10 +41584,10 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D142">
-        <v>14.73214285714286</v>
+        <v>31.91964285714285</v>
       </c>
       <c r="E142">
         <v>448</v>
@@ -41601,10 +41601,10 @@
         <v>15</v>
       </c>
       <c r="C143">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="D143">
-        <v>61.83035714285714</v>
+        <v>77.90178571428571</v>
       </c>
       <c r="E143">
         <v>448</v>
@@ -41615,10 +41615,10 @@
         <v>7</v>
       </c>
       <c r="C144">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E144">
         <v>448</v>
@@ -41629,10 +41629,10 @@
         <v>11</v>
       </c>
       <c r="C145">
-        <v>233</v>
+        <v>323</v>
       </c>
       <c r="D145">
-        <v>52.00892857142857</v>
+        <v>72.09821428571429</v>
       </c>
       <c r="E145">
         <v>448</v>
@@ -41646,10 +41646,10 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>21</v>
+        <v>391</v>
       </c>
       <c r="D146">
-        <v>4.6875</v>
+        <v>87.27678571428571</v>
       </c>
       <c r="E146">
         <v>448</v>
@@ -41660,10 +41660,10 @@
         <v>17</v>
       </c>
       <c r="C147">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D147">
-        <v>18.97321428571428</v>
+        <v>47.99107142857143</v>
       </c>
       <c r="E147">
         <v>448</v>
@@ -41674,10 +41674,10 @@
         <v>8</v>
       </c>
       <c r="C148">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="D148">
-        <v>29.6875</v>
+        <v>47.54464285714285</v>
       </c>
       <c r="E148">
         <v>448</v>
@@ -41691,10 +41691,10 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="D149">
-        <v>13.83928571428572</v>
+        <v>90.84821428571429</v>
       </c>
       <c r="E149">
         <v>448</v>
@@ -41705,10 +41705,10 @@
         <v>19</v>
       </c>
       <c r="C150">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>2.008928571428572</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E150">
         <v>448</v>
@@ -41719,10 +41719,10 @@
         <v>11</v>
       </c>
       <c r="C151">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="D151">
-        <v>18.75</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E151">
         <v>448</v>
@@ -41736,10 +41736,10 @@
         <v>15</v>
       </c>
       <c r="C152">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="D152">
-        <v>60.04464285714286</v>
+        <v>77.90178571428571</v>
       </c>
       <c r="E152">
         <v>448</v>
@@ -41750,10 +41750,10 @@
         <v>7</v>
       </c>
       <c r="C153">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E153">
         <v>448</v>
@@ -41764,10 +41764,10 @@
         <v>13</v>
       </c>
       <c r="C154">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>12.5</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E154">
         <v>448</v>
@@ -41781,10 +41781,10 @@
         <v>15</v>
       </c>
       <c r="C155">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="D155">
-        <v>29.6875</v>
+        <v>79.01785714285714</v>
       </c>
       <c r="E155">
         <v>448</v>
@@ -41795,10 +41795,10 @@
         <v>17</v>
       </c>
       <c r="C156">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="D156">
-        <v>7.366071428571429</v>
+        <v>47.54464285714285</v>
       </c>
       <c r="E156">
         <v>448</v>
@@ -41809,10 +41809,10 @@
         <v>8</v>
       </c>
       <c r="C157">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="D157">
-        <v>29.24107142857143</v>
+        <v>49.55357142857143</v>
       </c>
       <c r="E157">
         <v>448</v>
@@ -41826,10 +41826,10 @@
         <v>10</v>
       </c>
       <c r="C158">
-        <v>21</v>
+        <v>395</v>
       </c>
       <c r="D158">
-        <v>4.6875</v>
+        <v>88.16964285714286</v>
       </c>
       <c r="E158">
         <v>448</v>
@@ -41840,10 +41840,10 @@
         <v>21</v>
       </c>
       <c r="C159">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="D159">
-        <v>6.696428571428571</v>
+        <v>93.75</v>
       </c>
       <c r="E159">
         <v>448</v>
@@ -41854,10 +41854,10 @@
         <v>13</v>
       </c>
       <c r="C160">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D160">
-        <v>27.90178571428572</v>
+        <v>33.92857142857143</v>
       </c>
       <c r="E160">
         <v>448</v>
@@ -41871,10 +41871,10 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>61</v>
+        <v>407</v>
       </c>
       <c r="D161">
-        <v>13.61607142857143</v>
+        <v>90.84821428571429</v>
       </c>
       <c r="E161">
         <v>448</v>
@@ -41885,10 +41885,10 @@
         <v>25</v>
       </c>
       <c r="C162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E162">
         <v>448</v>
@@ -41899,10 +41899,10 @@
         <v>11</v>
       </c>
       <c r="C163">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="D163">
-        <v>18.52678571428572</v>
+        <v>72.99107142857143</v>
       </c>
       <c r="E163">
         <v>448</v>
@@ -41916,10 +41916,10 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="D164">
-        <v>13.61607142857143</v>
+        <v>89.95535714285714</v>
       </c>
       <c r="E164">
         <v>448</v>
@@ -41930,10 +41930,10 @@
         <v>25</v>
       </c>
       <c r="C165">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E165">
         <v>448</v>
@@ -41944,10 +41944,10 @@
         <v>13</v>
       </c>
       <c r="C166">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D166">
-        <v>3.348214285714286</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E166">
         <v>448</v>
@@ -41961,10 +41961,10 @@
         <v>6</v>
       </c>
       <c r="C167">
-        <v>84</v>
+        <v>409</v>
       </c>
       <c r="D167">
-        <v>18.75</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E167">
         <v>448</v>
@@ -41975,10 +41975,10 @@
         <v>19</v>
       </c>
       <c r="C168">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>2.232142857142857</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E168">
         <v>448</v>
@@ -41989,10 +41989,10 @@
         <v>13</v>
       </c>
       <c r="C169">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>3.794642857142857</v>
+        <v>1.116071428571429</v>
       </c>
       <c r="E169">
         <v>448</v>
@@ -42006,10 +42006,10 @@
         <v>6</v>
       </c>
       <c r="C170">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="D170">
-        <v>18.52678571428572</v>
+        <v>91.29464285714286</v>
       </c>
       <c r="E170">
         <v>448</v>
@@ -42020,10 +42020,10 @@
         <v>25</v>
       </c>
       <c r="C171">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>1.785714285714286</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E171">
         <v>448</v>
@@ -42034,10 +42034,10 @@
         <v>13</v>
       </c>
       <c r="C172">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>3.348214285714286</v>
+        <v>0.6696428571428571</v>
       </c>
       <c r="E172">
         <v>448</v>
@@ -42051,10 +42051,10 @@
         <v>15</v>
       </c>
       <c r="C173">
-        <v>144</v>
+        <v>372</v>
       </c>
       <c r="D173">
-        <v>32.14285714285715</v>
+        <v>83.03571428571429</v>
       </c>
       <c r="E173">
         <v>448</v>
@@ -42065,10 +42065,10 @@
         <v>17</v>
       </c>
       <c r="C174">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="D174">
-        <v>22.99107142857143</v>
+        <v>13.16964285714286</v>
       </c>
       <c r="E174">
         <v>448</v>
@@ -42079,10 +42079,10 @@
         <v>11</v>
       </c>
       <c r="C175">
-        <v>117</v>
+        <v>284</v>
       </c>
       <c r="D175">
-        <v>26.11607142857143</v>
+        <v>63.39285714285714</v>
       </c>
       <c r="E175">
         <v>448</v>
@@ -42096,10 +42096,10 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>120</v>
+        <v>401</v>
       </c>
       <c r="D176">
-        <v>26.78571428571428</v>
+        <v>89.50892857142857</v>
       </c>
       <c r="E176">
         <v>448</v>
@@ -42110,10 +42110,10 @@
         <v>17</v>
       </c>
       <c r="C177">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="D177">
-        <v>7.366071428571429</v>
+        <v>47.54464285714285</v>
       </c>
       <c r="E177">
         <v>448</v>
@@ -42124,10 +42124,10 @@
         <v>8</v>
       </c>
       <c r="C178">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="D178">
-        <v>29.24107142857143</v>
+        <v>49.77678571428572</v>
       </c>
       <c r="E178">
         <v>448</v>
@@ -42141,10 +42141,10 @@
         <v>17</v>
       </c>
       <c r="C179">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D179">
-        <v>22.54464285714286</v>
+        <v>14.0625</v>
       </c>
       <c r="E179">
         <v>448</v>
@@ -42155,10 +42155,10 @@
         <v>13</v>
       </c>
       <c r="C180">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="D180">
-        <v>46.42857142857143</v>
+        <v>11.83035714285714</v>
       </c>
       <c r="E180">
         <v>448</v>
@@ -42169,10 +42169,10 @@
         <v>11</v>
       </c>
       <c r="C181">
-        <v>115</v>
+        <v>303</v>
       </c>
       <c r="D181">
-        <v>25.66964285714285</v>
+        <v>67.63392857142857</v>
       </c>
       <c r="E181">
         <v>448</v>
@@ -42186,10 +42186,10 @@
         <v>6</v>
       </c>
       <c r="C182">
-        <v>248</v>
+        <v>407</v>
       </c>
       <c r="D182">
-        <v>55.35714285714286</v>
+        <v>90.84821428571429</v>
       </c>
       <c r="E182">
         <v>448</v>
@@ -42200,10 +42200,10 @@
         <v>7</v>
       </c>
       <c r="C183">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>2.008928571428572</v>
+        <v>0.4464285714285714</v>
       </c>
       <c r="E183">
         <v>448</v>
@@ -42214,10 +42214,10 @@
         <v>13</v>
       </c>
       <c r="C184">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D184">
-        <v>12.5</v>
+        <v>0.8928571428571428</v>
       </c>
       <c r="E184">
         <v>448</v>
